--- a/Animal_Food_System_QA_Test_Cases.xlsx
+++ b/Animal_Food_System_QA_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\animalfood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40723908-0350-4EFF-8E7B-A82CF18E7357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B2A3F-0B68-42DC-8551-C3064263E658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -125,13 +130,16 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Animal Food System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +155,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,11 +195,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -193,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:G14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="G10:G1048576 G1:G8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,6 +577,17 @@
     <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
@@ -673,6 +712,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
